--- a/casos-CE.xlsx
+++ b/casos-CE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisedu\Desktop\CovidCeara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisedu\Desktop\covid19-Ceara-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="resumo" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -378,6 +378,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -533,8 +534,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8819875776397512E-2"/>
-                  <c:y val="-5.0362318840579713E-2"/>
+                  <c:x val="-2.6193585019044337E-2"/>
+                  <c:y val="-3.5869565217391368E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -554,8 +555,29 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0545203588681973E-2"/>
-                  <c:y val="-5.0362318840579713E-2"/>
+                  <c:x val="-2.371019910389989E-2"/>
+                  <c:y val="-4.3115942028985506E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8268180492590044E-2"/>
+                  <c:y val="-4.6739130434782644E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -628,10 +650,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$28</c:f>
+              <c:f>resumo!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -703,16 +725,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$B$2:$B$28</c:f>
+              <c:f>resumo!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -784,6 +818,18 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,10 +1009,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$28</c:f>
+              <c:f>resumo!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -1038,16 +1084,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$C$2:$C$28</c:f>
+              <c:f>resumo!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1119,6 +1177,18 @@
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,11 +1205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65449712"/>
-        <c:axId val="65450272"/>
+        <c:axId val="203239424"/>
+        <c:axId val="203239984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65449712"/>
+        <c:axId val="203239424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,14 +1246,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65450272"/>
+        <c:crossAx val="203239984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65450272"/>
+        <c:axId val="203239984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1263,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65449712"/>
+        <c:crossAx val="203239424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,10 +1415,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$28</c:f>
+              <c:f>resumo!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -1420,16 +1490,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$G$2:$G$28</c:f>
+              <c:f>resumo!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1501,6 +1583,18 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,11 +1609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="65453072"/>
-        <c:axId val="104519920"/>
+        <c:axId val="203242784"/>
+        <c:axId val="206176848"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="65453072"/>
+        <c:axId val="203242784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,14 +1650,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104519920"/>
+        <c:crossAx val="206176848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104519920"/>
+        <c:axId val="206176848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65453072"/>
+        <c:crossAx val="203242784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,6 +1794,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1720,10 +1815,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$27</c:f>
+              <c:f>resumo!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -1795,16 +1890,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$B$2:$B$27</c:f>
+              <c:f>resumo!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1876,6 +1983,18 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +2120,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2020,7 +2141,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2059,6 +2182,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2079,10 +2203,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$27</c:f>
+              <c:f>resumo!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -2154,16 +2278,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$C$2:$C$27</c:f>
+              <c:f>resumo!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2235,6 +2371,18 @@
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,8 +2397,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="104524400"/>
-        <c:axId val="104524960"/>
+        <c:axId val="206181328"/>
+        <c:axId val="206181888"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2289,13 +2437,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>resumo!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>resumo!$A$2:$A$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>d\-mmm</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="34"/>
                       <c:pt idx="0">
                         <c:v>43905</c:v>
                       </c:pt>
@@ -2367,6 +2515,18 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2466,16 +2626,16 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>resumo!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>resumo!$A$2:$A$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>d\-mmm</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="34"/>
                       <c:pt idx="0">
                         <c:v>43905</c:v>
                       </c:pt>
@@ -2547,6 +2707,18 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2646,16 +2818,16 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>resumo!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>resumo!$A$2:$A$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>d\-mmm</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="34"/>
                       <c:pt idx="0">
                         <c:v>43905</c:v>
                       </c:pt>
@@ -2727,6 +2899,18 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2797,7 +2981,7 @@
         </c:extLst>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="104524400"/>
+        <c:axId val="206181328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,14 +3018,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104524960"/>
+        <c:crossAx val="206181888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104524960"/>
+        <c:axId val="206181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +3035,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104524400"/>
+        <c:crossAx val="206181328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2865,6 +3049,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3018,7 +3203,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3037,7 +3224,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3056,7 +3245,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3075,7 +3266,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3114,6 +3307,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3134,10 +3328,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>resumo!$A$2:$A$26</c:f>
+              <c:f>resumo!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -3209,16 +3403,28 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resumo!$E$2:$E$26</c:f>
+              <c:f>resumo!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3290,6 +3496,18 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.16129032258064524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15824915824915831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0145348837209225E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8200692041522579E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0603337612323402E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,11 +3524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183300640"/>
-        <c:axId val="183301200"/>
+        <c:axId val="206631552"/>
+        <c:axId val="206632112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="183300640"/>
+        <c:axId val="206631552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,14 +3538,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183301200"/>
+        <c:crossAx val="206632112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183301200"/>
+        <c:axId val="206632112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183300640"/>
+        <c:crossAx val="206631552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5595,15 +5813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5978,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6051,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F25" si="0">10^6*B2/$Q$1</f>
+        <f t="shared" ref="F2:F29" si="0">10^6*B2/$Q$1</f>
         <v>0.32851230574246082</v>
       </c>
       <c r="G2">
@@ -6097,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D25" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D29" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="8">
@@ -6155,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E25" si="3">B4/B3 - 1</f>
+        <f t="shared" ref="E4:E29" si="3">B4/B3 - 1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="F4" s="3">
@@ -6216,7 +6434,7 @@
         <v>2.0805779363689183</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G25" si="5">B5-B4</f>
+        <f t="shared" ref="G5:G29" si="5">B5-B4</f>
         <v>9</v>
       </c>
       <c r="I5">
@@ -7017,15 +7235,132 @@
         <v>1.1612903225806452</v>
       </c>
     </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B26">
+        <v>1376</v>
+      </c>
+      <c r="C26">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8517441860465115E-2</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15824915824915831</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>150.67764423387536</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I29" si="7">B26/B25</f>
+        <v>1.1582491582491583</v>
+      </c>
+    </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="H27">
-        <f>I27*B24</f>
-        <v>1209.9371696456287</v>
+      <c r="A27" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B27">
+        <v>1445</v>
+      </c>
+      <c r="C27">
+        <v>57</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9446366782006921E-2</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="3"/>
+        <v>5.0145348837209225E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>158.23342726595195</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>69</v>
       </c>
       <c r="I27">
-        <f>AVERAGE(I20:I24)</f>
-        <v>1.1827342811785226</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>1.0501453488372092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B28">
+        <v>1558</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3003851091142492E-2</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="3"/>
+        <v>7.8200692041522579E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>170.60739078225131</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>1.0782006920415226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B29">
+        <v>1668</v>
+      </c>
+      <c r="C29">
+        <v>74</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4364508393285373E-2</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="3"/>
+        <v>7.0603337612323402E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>182.65284199280822</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>1.0706033376123234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E31" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/casos-CE.xlsx
+++ b/casos-CE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisedu\Desktop\covid19-Ceara-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisedu\Desktop\CovidCeara\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16788" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="resumo" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -378,7 +378,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -738,6 +737,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -830,6 +838,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,6 +1111,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1189,6 +1212,12 @@
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,11 +1234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203239424"/>
-        <c:axId val="203239984"/>
+        <c:axId val="66760000"/>
+        <c:axId val="66760560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="203239424"/>
+        <c:axId val="66760000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,14 +1275,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203239984"/>
+        <c:crossAx val="66760560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203239984"/>
+        <c:axId val="66760560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203239424"/>
+        <c:crossAx val="66760000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,6 +1532,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1595,6 +1633,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="203242784"/>
-        <c:axId val="206176848"/>
+        <c:axId val="66763360"/>
+        <c:axId val="66763920"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203242784"/>
+        <c:axId val="66763360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,14 +1694,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206176848"/>
+        <c:crossAx val="66763920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206176848"/>
+        <c:axId val="66763920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1711,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203242784"/>
+        <c:crossAx val="66763360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1838,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1903,6 +1946,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1995,6 +2047,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,9 +2178,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2141,9 +2197,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2182,7 +2236,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2291,6 +2344,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2383,6 +2445,12 @@
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,8 +2465,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="206181328"/>
-        <c:axId val="206181888"/>
+        <c:axId val="184975536"/>
+        <c:axId val="184976096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2528,6 +2596,15 @@
                       <c:pt idx="27">
                         <c:v>43932</c:v>
                       </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43935</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2626,7 +2703,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>resumo!$A$2:$A$35</c15:sqref>
@@ -2719,6 +2796,15 @@
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43935</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2818,7 +2904,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>resumo!$A$2:$A$35</c15:sqref>
@@ -2911,6 +2997,15 @@
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43935</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2981,7 +3076,7 @@
         </c:extLst>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="206181328"/>
+        <c:axId val="184975536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,14 +3113,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206181888"/>
+        <c:crossAx val="184976096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206181888"/>
+        <c:axId val="184976096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3130,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206181328"/>
+        <c:crossAx val="184975536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3049,7 +3144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3203,9 +3297,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3224,9 +3316,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3245,9 +3335,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3266,9 +3354,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3307,7 +3393,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3416,6 +3501,15 @@
                 <c:pt idx="27">
                   <c:v>43932</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3508,6 +3602,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7.0603337612323402E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7362110311750527E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10761305094447615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,11 +3624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206631552"/>
-        <c:axId val="206632112"/>
+        <c:axId val="184978896"/>
+        <c:axId val="184979456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="206631552"/>
+        <c:axId val="184978896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,14 +3638,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206632112"/>
+        <c:crossAx val="184979456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206632112"/>
+        <c:axId val="184979456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206631552"/>
+        <c:crossAx val="184978896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6196,10 +6296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6269,12 +6369,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F29" si="0">10^6*B2/$Q$1</f>
+        <f t="shared" ref="F2:F31" si="0">10^6*B2/$Q$1</f>
         <v>0.32851230574246082</v>
       </c>
       <c r="G2">
         <f>B2</f>
         <v>3</v>
+      </c>
+      <c r="H2">
+        <f>B10/B2</f>
+        <v>54.666666666666664</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>80</v>
@@ -6315,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D29" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D31" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="8">
@@ -6329,6 +6433,10 @@
       <c r="G3">
         <f>B3-B2</f>
         <v>6</v>
+      </c>
+      <c r="H3">
+        <f>B20/B10</f>
+        <v>3.4329268292682928</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I14" si="2">B3/B2</f>
@@ -6373,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E29" si="3">B4/B3 - 1</f>
+        <f t="shared" ref="E4:E31" si="3">B4/B3 - 1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="F4" s="3">
@@ -6383,6 +6491,10 @@
       <c r="G4">
         <f>B4-B3</f>
         <v>1</v>
+      </c>
+      <c r="H4">
+        <f>B30/B20</f>
+        <v>3.1030195381882772</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -6434,7 +6546,7 @@
         <v>2.0805779363689183</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G29" si="5">B5-B4</f>
+        <f t="shared" ref="G5:G31" si="5">B5-B4</f>
         <v>9</v>
       </c>
       <c r="I5">
@@ -7137,13 +7249,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="10">
         <v>43926</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>824</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>26</v>
       </c>
       <c r="D23" s="9">
@@ -7174,13 +7286,13 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="10">
         <v>43927</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="14">
         <v>1023</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>31</v>
       </c>
       <c r="D24" s="9">
@@ -7236,13 +7348,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>43929</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="14">
         <v>1376</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>53</v>
       </c>
       <c r="D26" s="9">
@@ -7359,8 +7471,67 @@
         <v>1.0706033376123234</v>
       </c>
     </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B30">
+        <v>1747</v>
+      </c>
+      <c r="C30">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.350314825414997E-2</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="3"/>
+        <v>4.7362110311750527E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>191.30366604402633</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E31" s="16"/>
+      <c r="A31" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B31">
+        <v>1935</v>
+      </c>
+      <c r="C31">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.219638242894057E-2</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10761305094447615</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>211.89043720388722</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/casos-CE.xlsx
+++ b/casos-CE.xlsx
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -378,6 +378,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -746,6 +747,12 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -844,6 +851,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,6 +1136,12 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1218,6 +1240,15 @@
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
                   <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,11 +1265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66760000"/>
-        <c:axId val="66760560"/>
+        <c:axId val="56269232"/>
+        <c:axId val="56269792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66760000"/>
+        <c:axId val="56269232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,14 +1306,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66760560"/>
+        <c:crossAx val="56269792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66760560"/>
+        <c:axId val="56269792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1323,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66760000"/>
+        <c:crossAx val="56269232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,6 +1572,15 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1639,6 +1679,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,11 +1705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="66763360"/>
-        <c:axId val="66763920"/>
+        <c:axId val="182786528"/>
+        <c:axId val="182787088"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66763360"/>
+        <c:axId val="182786528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,14 +1746,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66763920"/>
+        <c:crossAx val="182787088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66763920"/>
+        <c:axId val="182787088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1763,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66763360"/>
+        <c:crossAx val="182786528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,6 +1890,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1955,6 +2008,15 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2053,6 +2115,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2252,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2197,7 +2273,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2236,6 +2314,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2353,6 +2432,15 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2451,6 +2539,18 @@
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
                   <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,8 +2565,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="184975536"/>
-        <c:axId val="184976096"/>
+        <c:axId val="182791568"/>
+        <c:axId val="182792128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2605,6 +2705,15 @@
                       <c:pt idx="30">
                         <c:v>43935</c:v>
                       </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43938</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2806,6 +2915,15 @@
                       <c:pt idx="30">
                         <c:v>43935</c:v>
                       </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43938</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3007,6 +3125,15 @@
                       <c:pt idx="30">
                         <c:v>43935</c:v>
                       </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43938</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3076,7 +3203,7 @@
         </c:extLst>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="184975536"/>
+        <c:axId val="182791568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,14 +3240,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184976096"/>
+        <c:crossAx val="182792128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184976096"/>
+        <c:axId val="182792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3257,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184975536"/>
+        <c:crossAx val="182791568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3144,6 +3271,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3297,7 +3425,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3316,7 +3446,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3335,7 +3467,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3354,7 +3488,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3393,6 +3529,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3510,6 +3647,15 @@
                 <c:pt idx="30">
                   <c:v>43935</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3608,6 +3754,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.10761305094447615</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9767441860465018E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10676328502415466</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3251855085115762E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13841690841276422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,11 +3782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184978896"/>
-        <c:axId val="184979456"/>
+        <c:axId val="183266624"/>
+        <c:axId val="183267184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="184978896"/>
+        <c:axId val="183266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,14 +3796,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184979456"/>
+        <c:crossAx val="183267184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184979456"/>
+        <c:axId val="183267184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3813,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184978896"/>
+        <c:crossAx val="183266624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6296,10 +6454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6369,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F31" si="0">10^6*B2/$Q$1</f>
+        <f t="shared" ref="F2:F36" si="0">10^6*B2/$Q$1</f>
         <v>0.32851230574246082</v>
       </c>
       <c r="G2">
@@ -6419,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D31" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D36" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="8">
@@ -6481,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E31" si="3">B4/B3 - 1</f>
+        <f t="shared" ref="E4:E36" si="3">B4/B3 - 1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="F4" s="3">
@@ -6546,7 +6704,7 @@
         <v>2.0805779363689183</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G31" si="5">B5-B4</f>
+        <f t="shared" ref="G5:G36" si="5">B5-B4</f>
         <v>9</v>
       </c>
       <c r="I5">
@@ -7529,9 +7687,139 @@
       <c r="A32" s="1">
         <v>43935</v>
       </c>
+      <c r="B32">
+        <v>2070</v>
+      </c>
+      <c r="C32">
+        <v>111</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3623188405797099E-2</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="3"/>
+        <v>6.9767441860465018E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>226.67349096229796</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B33">
+        <v>2291</v>
+      </c>
+      <c r="C33">
+        <v>124</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4124836316019206E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="3"/>
+        <v>0.10676328502415466</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>250.8738974853259</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B34">
+        <v>2413</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5946953999171156E-2</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="3"/>
+        <v>5.3251855085115762E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>264.23339791885263</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B35">
+        <v>2747</v>
+      </c>
+      <c r="C35">
+        <v>155</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="1"/>
+        <v>5.6425191117582818E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13841690841276422</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>300.80776795817997</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B36">
+        <v>3062</v>
+      </c>
+      <c r="C36">
+        <v>180</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8785107772697583E-2</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11467054969057155</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>335.30156006113833</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
